--- a/compared/compare_results_normalized_freq.xlsx
+++ b/compared/compare_results_normalized_freq.xlsx
@@ -497,19 +497,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b, d2006, o2008</t>
+          <t>o1980, o1988, o2008</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2616</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -549,11 +549,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b, d2006</t>
+          <t>o1980, o1988, o1992b, d2006, o2008</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>78</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="7">
@@ -601,11 +601,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>66</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8">
@@ -627,19 +627,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b</t>
+          <t>o1980, o1988, o1992b, d2006</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -653,11 +653,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>408</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -679,19 +679,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>o1980, o1988, o2008</t>
+          <t>o1980, o1988, o1992b</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -705,19 +705,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b, o2008</t>
+          <t>o1980, o1988</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -731,19 +731,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b, d2006</t>
+          <t>o1980, o1988, o1992b</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -757,19 +757,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATATTAAT</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b, d2006</t>
+          <t>o1980, o1988</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -783,19 +783,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b, d2006</t>
+          <t>o1980, o1992b</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -809,11 +809,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -835,19 +835,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b, o2008</t>
+          <t>o1980, o1988, o1992b</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -861,15 +861,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AAAAATATAT</t>
+          <t>ATTAAAATAT</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b, d2006</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -887,15 +887,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ATATAAAAAT</t>
+          <t>AAAAATATAT</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b</t>
+          <t>o1980, o1988, o1992b, d2006</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -913,19 +913,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b</t>
+          <t>o1980, o1988</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20">
@@ -939,11 +939,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TAAAATAAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -965,19 +965,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AAAAATAAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b, d2006</t>
+          <t>o1980, o1988, o1992b, o2008</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="22">
@@ -986,24 +986,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>TAATTAATAT</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>o1980, o1992b</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1017,19 +1017,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AAATAAAAAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b</t>
+          <t>o1980, o1988, o1992b, d2006</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1043,19 +1043,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ATAAAAATAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>o1980, o1988</t>
+          <t>o1980, o1988, o1992b, o2008</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="25">
@@ -1069,11 +1069,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATAAAAATAT</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1090,24 +1090,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>ATATTATAAT</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>o1980, o1988, o1992b</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1121,19 +1121,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>o1980, o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1142,24 +1142,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>o1980, o1988</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>474</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1168,24 +1168,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AAAATAATAT</t>
+          <t>TAATATTAAT</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>o1980, o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1194,24 +1194,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ATAAAAAAAT</t>
+          <t>ATTAATTAAT</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>o1980, o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1225,19 +1225,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AAAAAAATAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>o1980, o1988</t>
+          <t>o1980, o1988, o1992b, d2006</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1251,19 +1251,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TAATAAAAAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>o1980, o1992b</t>
+          <t>o1980, o1988, o1992b</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1272,24 +1272,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>TAATAAAAAT</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>o1988, o1992b</t>
+          <t>o1980, o1992b</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1298,24 +1298,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AAAAAAAAAT</t>
+          <t>TAATAATAAT</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>o1980, o1988</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35">
@@ -1324,24 +1324,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ATTAATTAAT</t>
+          <t>AAATAAAAAT</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980, o1988, o1992b</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1350,24 +1350,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TAATTAATAT</t>
+          <t>TAAAAAATAT</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1381,11 +1381,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ATTAAAATAT</t>
+          <t>AAAAATTAAT</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1402,24 +1402,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>TATAATTAAT</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -1428,24 +1428,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>AAAAATAAAT</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>o1988</t>
+          <t>o1980, o1988, o1992b, d2006</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1454,24 +1454,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ATATTATAAT</t>
+          <t>ATAAAAAAAT</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980, o1988</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1480,24 +1480,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TAATATTAAT</t>
+          <t>TAAAATAAAT</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980, o1988, o1992b, d2006</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1532,12 +1532,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TATAATTAAT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1545,11 +1545,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TAATAATAAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1571,11 +1571,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1988, o1992b</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>601</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>AATAATTAAT</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1597,11 +1597,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o2008</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AATAATTAAT</t>
+          <t>AAAAAAATAT</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1649,11 +1649,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>o2008</t>
+          <t>o1980, o1988</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AAAAATTAAT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1980, o1988</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -1693,11 +1693,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TAAAAAATAT</t>
+          <t>AAAAAATAAT</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AAAAAATAAT</t>
+          <t>AAAAAAAAAT</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>o1980</t>
+          <t>o1980, o1988</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.25</v>
+        <v>8.5</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
